--- a/BusquedaSelenium/file/Book1.xlsx
+++ b/BusquedaSelenium/file/Book1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>Producto</t>
   </si>
@@ -44,13 +44,16 @@
     <t>Chrome</t>
   </si>
   <si>
-    <t>dueño de ti dueño de nada</t>
-  </si>
-  <si>
     <t>dragon ball</t>
   </si>
   <si>
     <t>camiseta</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Prueba que no aparecía así quisiera</t>
   </si>
 </sst>
 </file>
@@ -380,7 +383,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -401,7 +404,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -412,7 +415,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -423,7 +426,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -434,10 +437,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
         <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
